--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3081.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3081.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.111718244381193</v>
+        <v>1.275776982307434</v>
       </c>
       <c r="B1">
-        <v>2.378416256460276</v>
+        <v>2.19999623298645</v>
       </c>
       <c r="C1">
-        <v>4.364653236261534</v>
+        <v>4.727369785308838</v>
       </c>
       <c r="D1">
-        <v>3.611633542917499</v>
+        <v>3.183247327804565</v>
       </c>
       <c r="E1">
-        <v>1.28587276418207</v>
+        <v>1.360368728637695</v>
       </c>
     </row>
   </sheetData>
